--- a/Timesheets/Ryan Timesheet.xlsx
+++ b/Timesheets/Ryan Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepsi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CDA71D-0737-448B-83B1-10A3B27D34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E885EF-E9CF-48B8-B87C-74D0CC319D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,63 @@
   </si>
   <si>
     <t>Reviewed current code and fixed date error in which end date could precede current date by linking a new update function. This code was pushed.</t>
+  </si>
+  <si>
+    <t>5 h</t>
+  </si>
+  <si>
+    <t>Discovered through benchmarking that api might not be the issue. Began to work on alternative ways of speeding up query performance</t>
+  </si>
+  <si>
+    <t>Switched API calling to python with parallel calls. Also made it so progress bar is correctly signaled and updated on the main thread. All code was pushed.</t>
+  </si>
+  <si>
+    <t>Continued to research ways to improve performance of querying</t>
+  </si>
+  <si>
+    <t>2.5 h</t>
+  </si>
+  <si>
+    <t>Started benchmarking where API limit was. Found out that 32x32 hits the minutely limit</t>
+  </si>
+  <si>
+    <t>Conducted more research on ways to improve performance and discovered the ability to create an open session instead of reopening the connection for every call. This code was pushed.</t>
+  </si>
+  <si>
+    <t>Began researching ways to avoid limit, or at least exception handling</t>
+  </si>
+  <si>
+    <t>Continued to research limit avoidance techniques. Pushed a change that disallowed the user from spamming query</t>
+  </si>
+  <si>
+    <t>Implemented a 16x16 queue to avoid minutely limit reach with threaded timers, and added exception handling to catch such runtime errors. All code was pushed</t>
+  </si>
+  <si>
+    <t>Pushed numerous bug fixes: such as the explicit stopping of timers if prematurely closed, and out of bounds error with 4x4 and 2x2 calls.</t>
+  </si>
+  <si>
+    <t>Worked extensively on ways to improve rust code performance without full interpolation change. I tried putting rust code in separate thread, async rust function, cleaning up any redundant calculations, etc.</t>
+  </si>
+  <si>
+    <t>8.5 h</t>
+  </si>
+  <si>
+    <t>Added lots of bug fixes, correct exception handling, and added new threads to distinguish between query and render time, with animated button text. All code was pushed.</t>
+  </si>
+  <si>
+    <t>1.5 h</t>
+  </si>
+  <si>
+    <t>Additional bug fix was pushed in relation to render timer not being stopped after caught exception</t>
+  </si>
+  <si>
+    <t>Worked on final presentation slides</t>
+  </si>
+  <si>
+    <t>Group discussion</t>
+  </si>
+  <si>
+    <t>Met with Carsten about the state of our project. Started researching new APIs due to the poor performance of our prototype API</t>
   </si>
 </sst>
 </file>
@@ -429,8 +486,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -625,110 +682,260 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
+    <row r="12" spans="1:5" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="12">
+        <v>45118</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="12">
+        <v>45118</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="12">
+        <v>45119</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="12">
+        <v>45120</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="12">
+        <v>45124</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A17" s="12">
+        <v>45125</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A18" s="12">
+        <v>45127</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A19" s="12">
+        <v>45127</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="12">
+        <v>45129</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="12">
+        <v>45130</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A22" s="12">
+        <v>45131</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A23" s="12">
+        <v>45132</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A24" s="12">
+        <v>45133</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="12">
+        <v>45133</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A26" s="12">
+        <v>45134</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A27" s="5"/>
